--- a/第二次迭代/第二次迭代当前完成的文档/跟踪表格.xlsx
+++ b/第二次迭代/第二次迭代当前完成的文档/跟踪表格.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="跟踪表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +54,347 @@
   </si>
   <si>
     <t>本周支出（大约小时数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09.30-10.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15-10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.23-11.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目定义（简介）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内各成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求规格说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分原型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件项目计划过程说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计说明书(接口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开发计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内各成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计说明书(类图或表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发计划过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划实施情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试及实验计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术风险分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内各成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发实施-原型（按模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梦宇+张晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦赫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理图片本地存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待处理图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取手机存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头拍摄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取背景底色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梦宇+张晓+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片主体选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片主体分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤镜加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理图片上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史已处理图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端+后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦赫城+程志豪+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块拼接（原型搭建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册取图，照相试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程志豪+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片变形试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓+黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库存储试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像切割试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄俊萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼图试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素描试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梦宇+程志豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App需求分析规格说明书</t>
+  </si>
+  <si>
+    <t>原型图及原型</t>
+  </si>
+  <si>
+    <t>软件测试方案</t>
+  </si>
+  <si>
+    <t>集成测试报告</t>
+  </si>
+  <si>
+    <t>项目开发计划表</t>
+  </si>
+  <si>
+    <t>接口说明</t>
+  </si>
+  <si>
+    <t>应用程序打包</t>
+  </si>
+  <si>
+    <t>较成熟版原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始类表制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类表或类图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类表都由开发人员自己做好，描述，期间可以进行接口实施，最后综合完成接口说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +417,78 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -108,17 +515,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -422,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,4 +965,792 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" style="14" customWidth="1"/>
+    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="16"/>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <v>7.01</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
+        <v>7.02</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
+        <v>7.03</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="14">
+        <v>8.01</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="14">
+        <v>8.02</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="14">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="14">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="14">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="14">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="14">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="14">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="14">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="14">
+        <v>13.01</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="K42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="14">
+        <v>13.02</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="K43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="14">
+        <v>13.03</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="K44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="14">
+        <v>13.04</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="K45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="14">
+        <v>13.05</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="K46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="14">
+        <v>13.06</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="K47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="14">
+        <v>13.07</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="K48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="E53" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E55" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>